--- a/wz/expdata/2007.xlsx
+++ b/wz/expdata/2007.xlsx
@@ -107,13 +107,13 @@
     <t>pp</t>
   </si>
   <si>
-    <t>ATLAS</t>
-  </si>
-  <si>
     <t>W-</t>
   </si>
   <si>
     <t>target</t>
+  </si>
+  <si>
+    <t>ATLAS(2012)</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -445,7 +445,8 @@
     <col min="1" max="14" width="10.875" style="1" customWidth="1"/>
     <col min="15" max="19" width="10.375" style="1"/>
     <col min="20" max="22" width="10.875" style="1" customWidth="1"/>
-    <col min="23" max="24" width="10.375" style="1"/>
+    <col min="23" max="23" width="10.375" style="1"/>
+    <col min="24" max="24" width="13.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -516,7 +517,7 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
@@ -600,7 +601,7 @@
         <v>26</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -681,7 +682,7 @@
         <v>26</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -762,7 +763,7 @@
         <v>26</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -843,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -924,7 +925,7 @@
         <v>26</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1005,7 +1006,7 @@
         <v>26</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1086,7 +1087,7 @@
         <v>26</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1167,7 +1168,7 @@
         <v>26</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1248,7 +1249,7 @@
         <v>26</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1329,7 +1330,7 @@
         <v>26</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1410,7 +1411,7 @@
         <v>26</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1427,7 +1428,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1">
         <v>493.7</v>
@@ -1491,7 +1492,7 @@
         <v>26</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1508,7 +1509,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1">
         <v>489.6</v>
@@ -1572,7 +1573,7 @@
         <v>26</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1589,7 +1590,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1">
         <v>485.8</v>
@@ -1653,7 +1654,7 @@
         <v>26</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1670,7 +1671,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1">
         <v>474.3</v>
@@ -1734,7 +1735,7 @@
         <v>26</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -1751,7 +1752,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="1">
         <v>465</v>
@@ -1815,7 +1816,7 @@
         <v>26</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -1832,7 +1833,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1">
         <v>455.7</v>
@@ -1896,7 +1897,7 @@
         <v>26</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -1913,7 +1914,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="1">
         <v>439.7</v>
@@ -1977,7 +1978,7 @@
         <v>26</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -1994,7 +1995,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" s="1">
         <v>427.3</v>
@@ -2058,7 +2059,7 @@
         <v>26</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -2075,7 +2076,7 @@
         <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" s="1">
         <v>410.2</v>
@@ -2139,7 +2140,7 @@
         <v>26</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -2156,7 +2157,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" s="1">
         <v>389.1</v>
@@ -2220,7 +2221,7 @@
         <v>26</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -2237,7 +2238,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" s="1">
         <v>368.3</v>
@@ -2301,7 +2302,7 @@
         <v>26</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
